--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Quantity</t>
   </si>
@@ -60,9 +60,6 @@
     <t>3/8" Rotary Shaft</t>
   </si>
   <si>
-    <t>1/2" Lightweight Keyed Shaft</t>
-  </si>
-  <si>
     <t>24"</t>
   </si>
   <si>
@@ -100,6 +97,57 @@
   </si>
   <si>
     <t>24" * 24"</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>6280K311</t>
+  </si>
+  <si>
+    <t>6280K122</t>
+  </si>
+  <si>
+    <t>6280K127</t>
+  </si>
+  <si>
+    <t>2780T37</t>
+  </si>
+  <si>
+    <t>2780T38</t>
+  </si>
+  <si>
+    <t>60635K2</t>
+  </si>
+  <si>
+    <t>7265K2</t>
+  </si>
+  <si>
+    <t>2781T41</t>
+  </si>
+  <si>
+    <t>5947K62</t>
+  </si>
+  <si>
+    <t>1886K15</t>
+  </si>
+  <si>
+    <t>1497K31</t>
+  </si>
+  <si>
+    <t>1/2" Keyed Rotary Shaft</t>
+  </si>
+  <si>
+    <t>1655T43</t>
+  </si>
+  <si>
+    <t>1655T918</t>
+  </si>
+  <si>
+    <t>88685K984</t>
+  </si>
+  <si>
+    <t>1388K201</t>
   </si>
 </sst>
 </file>
@@ -450,7 +498,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -459,6 +507,7 @@
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -466,13 +515,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -485,6 +537,9 @@
       <c r="D2" s="2">
         <v>10.66</v>
       </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -496,6 +551,9 @@
       <c r="D3" s="2">
         <v>16.07</v>
       </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -507,6 +565,9 @@
       <c r="D4" s="2">
         <v>24.63</v>
       </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -518,6 +579,9 @@
       <c r="D5" s="2">
         <v>12.5</v>
       </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -529,6 +593,9 @@
       <c r="D6" s="2">
         <v>12.5</v>
       </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -540,10 +607,13 @@
       <c r="D7" s="2">
         <v>16.36</v>
       </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -553,6 +623,9 @@
       </c>
       <c r="D8" s="2">
         <v>125.88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,19 +638,25 @@
       <c r="D9" s="3">
         <v>11</v>
       </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>36.19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -585,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -593,27 +672,33 @@
       <c r="D11" s="2">
         <v>30.4</v>
       </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>35.85</v>
+        <v>29.37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -622,15 +707,15 @@
         <v>560</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -638,13 +723,16 @@
       <c r="D14" s="2">
         <v>196.65</v>
       </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -652,13 +740,16 @@
       <c r="D15" s="2">
         <v>292.87</v>
       </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -666,13 +757,16 @@
       <c r="D16" s="2">
         <v>401.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -680,14 +774,17 @@
       <c r="D17" s="2">
         <v>126.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18">
-        <f>(C2*D2)+(C3+D3)+(C4+D4)+(C5+D5)+(C6+D6)+(C7+D7)+(C8+D8)+(C9+D9)+(C10+D10)+(C11+D11)+(C12+D12)+(C13+D13)+(C14+D14)+(C15+D15)+(C16+D16)+(C17+D17)</f>
-        <v>2083.58</v>
+        <f>(C2*D2)+(C3*D3)+(C4*D4)+(C5*D5)+(C6*D6)+(C7*D7)+(C8*D8)+(C9*D9)+(C10*D10)+(C11*D11)+(C12*D12)+(C13*D13)+(C14*D14)+(C15*D15)+(C16*D16)+(C17*D17)</f>
+        <v>4096.7800000000007</v>
       </c>
     </row>
   </sheetData>
